--- a/data/SwOK(N).xlsx
+++ b/data/SwOK(N).xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\QA_QC_proj\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D600DA-8EEA-4810-B242-B3A8EF948914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView xWindow="3825" yWindow="2580" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -76,14 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,159 +113,8 @@
       <name val="Arial"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,194 +133,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -520,251 +194,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -795,56 +227,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -862,6 +246,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1119,24 +506,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="6.57407407407407" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.35" spans="1:17">
+    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>59</v>
       </c>
@@ -1224,7 +611,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="10">
         <f>1-0.5*H2/100</f>
-        <v>0.974</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -1232,7 +619,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>59</v>
       </c>
@@ -1269,7 +656,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="10">
         <f t="shared" ref="N3:N47" si="1">1-0.5*H3/100</f>
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="O3" s="8">
         <v>29.2</v>
@@ -1279,7 +666,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>59</v>
       </c>
@@ -1316,7 +703,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="10">
         <f t="shared" si="1"/>
-        <v>0.991</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="O4" s="8">
         <v>511.5</v>
@@ -1326,7 +713,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>59</v>
       </c>
@@ -1358,7 +745,7 @@
         <v>2.48</v>
       </c>
       <c r="L5" s="8">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="10">
@@ -1373,7 +760,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>59</v>
       </c>
@@ -1383,7 +770,7 @@
         <v>2878.4</v>
       </c>
       <c r="E6" s="8">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
@@ -1402,7 +789,7 @@
         <v>2.29</v>
       </c>
       <c r="K6" s="8">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="L6" s="8">
         <v>7.2</v>
@@ -1410,7 +797,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="10">
         <f t="shared" si="1"/>
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="O6" s="8">
         <v>25.1</v>
@@ -1420,7 +807,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>59</v>
       </c>
@@ -1446,7 +833,7 @@
         <v>2.65</v>
       </c>
       <c r="J7" s="8">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="K7" s="8">
         <v>2.4</v>
@@ -1455,15 +842,15 @@
       <c r="M7" s="8"/>
       <c r="N7" s="10">
         <f t="shared" si="1"/>
-        <v>0.922</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>59</v>
       </c>
@@ -1489,7 +876,7 @@
         <v>2.64</v>
       </c>
       <c r="J8" s="8">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K8" s="8">
         <v>2.38</v>
@@ -1510,7 +897,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>59</v>
       </c>
@@ -1547,7 +934,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="10">
         <f t="shared" si="1"/>
-        <v>0.9175</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="O9" s="8">
         <v>19.3</v>
@@ -1557,7 +944,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>59</v>
       </c>
@@ -1571,7 +958,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>2881.2</v>
+        <v>2881.2000000000003</v>
       </c>
       <c r="G10" s="8">
         <v>2881.2</v>
@@ -1583,10 +970,10 @@
         <v>2.65</v>
       </c>
       <c r="J10" s="8">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="K10" s="8">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="L10" s="8">
         <v>3.9</v>
@@ -1594,7 +981,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="10">
         <f t="shared" si="1"/>
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="O10" s="8">
         <v>22.5</v>
@@ -1604,7 +991,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>59</v>
       </c>
@@ -1641,7 +1028,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="10">
         <f t="shared" si="1"/>
-        <v>0.9205</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="O11" s="8">
         <v>19.8</v>
@@ -1651,7 +1038,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>59</v>
       </c>
@@ -1677,10 +1064,10 @@
         <v>2.65</v>
       </c>
       <c r="J12" s="8">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K12" s="8">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="L12" s="8">
         <v>2.1</v>
@@ -1698,7 +1085,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>59</v>
       </c>
@@ -1735,7 +1122,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="10">
         <f t="shared" si="1"/>
-        <v>0.9205</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="O13" s="8">
         <v>20.2</v>
@@ -1745,7 +1132,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>59</v>
       </c>
@@ -1755,7 +1142,7 @@
         <v>2878.4</v>
       </c>
       <c r="E14" s="8">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="0"/>
@@ -1771,7 +1158,7 @@
         <v>2.65</v>
       </c>
       <c r="J14" s="8">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="K14" s="8">
         <v>2.41</v>
@@ -1782,7 +1169,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="10">
         <f t="shared" si="1"/>
-        <v>0.9265</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="O14" s="8">
         <v>21.2</v>
@@ -1792,7 +1179,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>59</v>
       </c>
@@ -1802,7 +1189,7 @@
         <v>2878.4</v>
       </c>
       <c r="E15" s="8">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
@@ -1824,12 +1211,12 @@
         <v>2.42</v>
       </c>
       <c r="L15" s="8">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="10">
         <f t="shared" si="1"/>
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="O15" s="8">
         <v>22.1</v>
@@ -1839,7 +1226,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>59</v>
       </c>
@@ -1849,7 +1236,7 @@
         <v>2878.4</v>
       </c>
       <c r="E16" s="8">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
@@ -1868,7 +1255,7 @@
         <v>2.44</v>
       </c>
       <c r="K16" s="8">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="L16" s="8">
         <v>0.22</v>
@@ -1876,7 +1263,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="10">
         <f t="shared" si="1"/>
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="O16" s="8">
         <v>46.3</v>
@@ -1886,7 +1273,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>59</v>
       </c>
@@ -1908,7 +1295,7 @@
         <v>2883.4</v>
       </c>
       <c r="H17" s="8">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I17" s="8">
         <v>2.65</v>
@@ -1917,7 +1304,7 @@
         <v>2.39</v>
       </c>
       <c r="K17" s="8">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L17" s="8">
         <v>0.54</v>
@@ -1925,7 +1312,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="10">
         <f t="shared" si="1"/>
-        <v>0.9515</v>
+        <v>0.95150000000000001</v>
       </c>
       <c r="O17" s="8">
         <v>42.5</v>
@@ -1935,7 +1322,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>59</v>
       </c>
@@ -1982,7 +1369,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>59</v>
       </c>
@@ -2029,7 +1416,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>59</v>
       </c>
@@ -2043,7 +1430,7 @@
       </c>
       <c r="F20" s="8">
         <f t="shared" si="0"/>
-        <v>2884.7</v>
+        <v>2884.7000000000003</v>
       </c>
       <c r="G20" s="8">
         <v>2884.7</v>
@@ -2066,17 +1453,17 @@
       <c r="M20" s="8"/>
       <c r="N20" s="10">
         <f t="shared" si="1"/>
-        <v>0.981</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="O20" s="8">
-        <v>153.2</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8">
-        <v>4.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>59</v>
       </c>
@@ -2095,7 +1482,9 @@
       <c r="G21" s="8">
         <v>2886</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -2103,13 +1492,13 @@
       <c r="M21" s="8"/>
       <c r="N21" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.98850000000000005</v>
       </c>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>59</v>
       </c>
@@ -2123,19 +1512,19 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="0"/>
-        <v>2887.45</v>
+        <v>2887.4500000000003</v>
       </c>
       <c r="G22" s="8">
         <v>2887.45</v>
       </c>
       <c r="H22" s="8">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I22" s="8">
         <v>2.62</v>
       </c>
       <c r="J22" s="8">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K22" s="8">
         <v>2.54</v>
@@ -2146,7 +1535,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="10">
         <f t="shared" si="1"/>
-        <v>0.9755</v>
+        <v>0.97550000000000003</v>
       </c>
       <c r="O22" s="8">
         <v>92.9</v>
@@ -2156,7 +1545,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>59</v>
       </c>
@@ -2185,7 +1574,7 @@
         <v>2.4</v>
       </c>
       <c r="K23" s="8">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="L23" s="8">
         <v>0.52</v>
@@ -2193,7 +1582,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="10">
         <f t="shared" si="1"/>
-        <v>0.9455</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="O23" s="8">
         <v>32.6</v>
@@ -2203,7 +1592,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>59</v>
       </c>
@@ -2240,7 +1629,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="10">
         <f t="shared" si="1"/>
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="O24" s="8">
         <v>29.8</v>
@@ -2250,7 +1639,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>59</v>
       </c>
@@ -2287,7 +1676,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="10">
         <f t="shared" si="1"/>
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="O25" s="8">
         <v>26.6</v>
@@ -2297,7 +1686,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>59</v>
       </c>
@@ -2325,10 +1714,10 @@
         <v>2.65</v>
       </c>
       <c r="J26" s="8">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K26" s="8">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L26" s="8">
         <v>0</v>
@@ -2336,17 +1725,17 @@
       <c r="M26" s="8"/>
       <c r="N26" s="10">
         <f t="shared" si="1"/>
-        <v>0.9705</v>
+        <v>0.97050000000000003</v>
       </c>
       <c r="O26" s="8">
-        <v>71.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8">
         <v>4.29</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>59</v>
       </c>
@@ -2369,13 +1758,13 @@
         <v>5.3</v>
       </c>
       <c r="I27" s="8">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="J27" s="8">
         <v>2.37</v>
       </c>
       <c r="K27" s="8">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="L27" s="8">
         <v>0</v>
@@ -2383,7 +1772,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="10">
         <f t="shared" si="1"/>
-        <v>0.9735</v>
+        <v>0.97350000000000003</v>
       </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -2391,7 +1780,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>59</v>
       </c>
@@ -2432,7 +1821,7 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>59</v>
       </c>
@@ -2471,7 +1860,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="10">
         <f t="shared" si="1"/>
-        <v>0.9065</v>
+        <v>0.90649999999999997</v>
       </c>
       <c r="O29" s="8">
         <v>19.5</v>
@@ -2481,7 +1870,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>59</v>
       </c>
@@ -2518,7 +1907,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="10">
         <f t="shared" si="1"/>
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="O30" s="8">
         <v>33.6</v>
@@ -2528,7 +1917,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>59</v>
       </c>
@@ -2554,7 +1943,7 @@
         <v>2.65</v>
       </c>
       <c r="J31" s="8">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K31" s="8">
         <v>2.37</v>
@@ -2565,17 +1954,17 @@
       <c r="M31" s="8"/>
       <c r="N31" s="10">
         <f t="shared" si="1"/>
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="O31" s="8">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8">
-        <v>2.51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>59</v>
       </c>
@@ -2595,7 +1984,7 @@
         <v>2898</v>
       </c>
       <c r="H32" s="8">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I32" s="8">
         <v>2.64</v>
@@ -2612,17 +2001,17 @@
       <c r="M32" s="8"/>
       <c r="N32" s="10">
         <f t="shared" si="1"/>
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="O32" s="8">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="8">
-        <v>2.49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>59</v>
       </c>
@@ -2651,7 +2040,7 @@
         <v>2.41</v>
       </c>
       <c r="K33" s="8">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="L33" s="8">
         <v>0.84</v>
@@ -2659,7 +2048,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="10">
         <f t="shared" si="1"/>
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O33" s="8">
         <v>39</v>
@@ -2669,7 +2058,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>59</v>
       </c>
@@ -2706,7 +2095,7 @@
       <c r="M34" s="8"/>
       <c r="N34" s="10">
         <f t="shared" si="1"/>
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="O34" s="8">
         <v>22</v>
@@ -2716,7 +2105,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>59</v>
       </c>
@@ -2730,7 +2119,7 @@
       </c>
       <c r="F35" s="8">
         <f t="shared" si="0"/>
-        <v>2898.7</v>
+        <v>2898.7000000000003</v>
       </c>
       <c r="G35" s="8">
         <v>2898.7</v>
@@ -2751,13 +2140,13 @@
       <c r="M35" s="8"/>
       <c r="N35" s="10">
         <f t="shared" si="1"/>
-        <v>0.9165</v>
+        <v>0.91649999999999998</v>
       </c>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>59</v>
       </c>
@@ -2777,7 +2166,7 @@
         <v>2898.9</v>
       </c>
       <c r="H36" s="8">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="I36" s="8">
         <v>2.64</v>
@@ -2794,17 +2183,17 @@
       <c r="M36" s="8"/>
       <c r="N36" s="10">
         <f t="shared" si="1"/>
-        <v>0.9045</v>
+        <v>0.90449999999999997</v>
       </c>
       <c r="O36" s="8">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="8">
         <v>2.54</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>59</v>
       </c>
@@ -2818,7 +2207,7 @@
       </c>
       <c r="F37" s="8">
         <f t="shared" si="0"/>
-        <v>2899.2</v>
+        <v>2899.2000000000003</v>
       </c>
       <c r="G37" s="8">
         <v>2899.2</v>
@@ -2841,7 +2230,7 @@
       <c r="M37" s="8"/>
       <c r="N37" s="10">
         <f t="shared" si="1"/>
-        <v>0.9285</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="O37" s="8">
         <v>27</v>
@@ -2851,7 +2240,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>59</v>
       </c>
@@ -2871,13 +2260,13 @@
         <v>2899.4</v>
       </c>
       <c r="H38" s="8">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="I38" s="8">
         <v>2.65</v>
       </c>
       <c r="J38" s="8">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K38" s="8">
         <v>2.39</v>
@@ -2888,7 +2277,7 @@
       <c r="M38" s="8"/>
       <c r="N38" s="10">
         <f t="shared" si="1"/>
-        <v>0.918</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="O38" s="8">
         <v>21.2</v>
@@ -2898,7 +2287,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>59</v>
       </c>
@@ -2908,11 +2297,11 @@
         <v>2897.4</v>
       </c>
       <c r="E39" s="8">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="0"/>
-        <v>2899.7</v>
+        <v>2899.7000000000003</v>
       </c>
       <c r="G39" s="8">
         <v>2899.7</v>
@@ -2927,7 +2316,7 @@
         <v>2.34</v>
       </c>
       <c r="K39" s="8">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L39" s="8">
         <v>1.8</v>
@@ -2935,17 +2324,17 @@
       <c r="M39" s="8"/>
       <c r="N39" s="10">
         <f t="shared" si="1"/>
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="O39" s="8">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8">
         <v>3.54</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>59</v>
       </c>
@@ -2974,7 +2363,7 @@
         <v>2.41</v>
       </c>
       <c r="K40" s="8">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="L40" s="8">
         <v>0.37</v>
@@ -2982,7 +2371,7 @@
       <c r="M40" s="8"/>
       <c r="N40" s="10">
         <f t="shared" si="1"/>
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="O40" s="8">
         <v>42</v>
@@ -2992,7 +2381,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>59</v>
       </c>
@@ -3029,7 +2418,7 @@
       <c r="M41" s="8"/>
       <c r="N41" s="10">
         <f t="shared" si="1"/>
-        <v>0.9315</v>
+        <v>0.93149999999999999</v>
       </c>
       <c r="O41" s="8">
         <v>24.4</v>
@@ -3039,7 +2428,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>59</v>
       </c>
@@ -3068,15 +2457,15 @@
         <v>2.44</v>
       </c>
       <c r="K42" s="8">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="L42" s="8">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M42" s="8"/>
       <c r="N42" s="10">
         <f t="shared" si="1"/>
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="O42" s="8">
         <v>50.7</v>
@@ -3086,7 +2475,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>59</v>
       </c>
@@ -3100,7 +2489,7 @@
       </c>
       <c r="F43" s="8">
         <f t="shared" si="0"/>
-        <v>2900.95</v>
+        <v>2900.9500000000003</v>
       </c>
       <c r="G43" s="8">
         <v>2900.95</v>
@@ -3112,7 +2501,7 @@
         <v>2.67</v>
       </c>
       <c r="J43" s="8">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="K43" s="8">
         <v>2.54</v>
@@ -3123,7 +2512,7 @@
       <c r="M43" s="8"/>
       <c r="N43" s="10">
         <f t="shared" si="1"/>
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="O43" s="8">
         <v>51.4</v>
@@ -3133,7 +2522,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>59</v>
       </c>
@@ -3149,7 +2538,7 @@
       </c>
       <c r="F44" s="8">
         <f t="shared" si="0"/>
-        <v>2904.7</v>
+        <v>2904.7000000000003</v>
       </c>
       <c r="G44" s="8">
         <v>2904.7</v>
@@ -3172,7 +2561,7 @@
       <c r="M44" s="8"/>
       <c r="N44" s="10">
         <f t="shared" si="1"/>
-        <v>0.9505</v>
+        <v>0.95050000000000001</v>
       </c>
       <c r="O44" s="8">
         <v>38.4</v>
@@ -3182,7 +2571,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>59</v>
       </c>
@@ -3208,7 +2597,7 @@
         <v>2.66</v>
       </c>
       <c r="J45" s="8">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="K45" s="8">
         <v>2.39</v>
@@ -3219,7 +2608,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="10">
         <f t="shared" si="1"/>
-        <v>0.916</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="O45" s="8">
         <v>20.8</v>
@@ -3229,7 +2618,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>59</v>
       </c>
@@ -3266,7 +2655,7 @@
       <c r="M46" s="8"/>
       <c r="N46" s="10">
         <f t="shared" si="1"/>
-        <v>0.9465</v>
+        <v>0.94650000000000001</v>
       </c>
       <c r="O46" s="8">
         <v>34.9</v>
@@ -3276,7 +2665,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>59</v>
       </c>
@@ -3305,7 +2694,7 @@
         <v>2.36</v>
       </c>
       <c r="K47" s="8">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L47" s="8">
         <v>0.47</v>
@@ -3324,10 +2713,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G$1:G$1048576">
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>